--- a/BCB420-2019-System-PHALY-0.3.xlsx
+++ b/BCB420-2019-System-PHALY-0.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-23920" windowWidth="31420" windowHeight="23380"/>
+    <workbookView xWindow="3380" yWindow="-24000" windowWidth="30280" windowHeight="23040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="system" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="475">
   <si>
     <t>name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>PHALY</t>
   </si>
   <si>
-    <t>Control and process of phagosome-lysosome docking and fusion.</t>
-  </si>
-  <si>
     <t>Phagosome-lysosome fusion is a key step in autophagy, the process in which a lysosome - a package of acidic, lytic enzymes - fuses to a phagosome that has enveloped some cargo, which is targeted for degradation and recycling. The fusion is a highly regulated process, involving the preparation of lipid microdomains, positioning of vesicles by dynein motors that move along the cytoskeleton, membrane anchored SNAREs that provide core docking functions, the facilitating CORVET, HOPS and BORC complexes, and precise regulation of fusion initiation at the protein level, the lipid level, and through the ionic context which involves calcium-selective voltage gated channels.</t>
   </si>
   <si>
@@ -338,9 +335,6 @@
     <t xml:space="preserve">LAMP2 is an integral membrane protein. The LAMP-2A isoform has a lysosomal targeting signature sequence. The presence of LAMP2 is required for the binding  of STX17 (pmid:27628032). </t>
   </si>
   <si>
-    <t xml:space="preserve">IRGM forms a complex (an autophagosome recognition particle, ARP) with STX17 and the Atg8 homologues LC3 and GABARAPL1 that is responsible for phagosomal targeting of STX17. IRGM does not directly bind LC3. IRGM's active conformation is GTP bound. IRGM also has a role in autophagy initiation complexes, binding BECLIN1, ULK1 and ATG16L1, which is indpendent of STX17 binding (pmid:29420192). </t>
-  </si>
-  <si>
     <t xml:space="preserve">The Mon1-CCZ1 GEF complex is a GEF that activates Rab7 by exchanging bound GDP (inactive form) to GTP (active form) (pmid:30115558).  It is found on both phagosome and lysosome membranes (pmid:30333976). </t>
   </si>
   <si>
@@ -452,9 +446,6 @@
     <t>sym</t>
   </si>
   <si>
-    <t>(protein | RNA | lipid | metabolite)</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -866,12 +857,6 @@
     <t>LC3 is a member of the Atg8 protein family (pmid:30115558).</t>
   </si>
   <si>
-    <t xml:space="preserve">STX17 is a Qa-SNARE which localizes to the phagosome by binding the phagosome membrane marker LC3-II via its LC3-interacting region (LIR) (pmid:30115558).  STX17 phosporylation on S2 is a key decision point for fusion to proceed; dephosphorylation relieves an inhibitory interaction with VPS33A and the phosphomimetic S2E mutant cannot form a SNARE bundle (pmid:30655294). STX17 has two glycine-zipper motif transmembrane domains that are required for membrane insertion (pmid:29420192). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAB7 is a small GTPase that replaces RAB5 in maturing endosomes (pmid:23645161). RAB7 localization to the membrane requires '''prenylation''' (pmid:30115558).  RAB7 is held in an inactive, soluble state by GDI (ARHGDIA), this interaction - and membrane recruitment - is released by the Mon1-CCZ1 complex (pmid:30333976).  RAB7 is activated on the phagosome by the Mon1-CCZ1 GEF complex which localizes to the phagosome by Atg8 homologue protein binding (pmid:30115558).  RAB7 can be localized to the lysosome by interaction with active lysosomal proton pumping vacuolar-type ATPase (V-ATPase) (pmid:30717974).  Inits active conformation, RAB7 can bind RILP to promote minus-end directed microtubular transport of the lysosome towards the MTOC (pmid:12944476). </t>
-  </si>
-  <si>
     <t>GABARAPL1 is a member of the Atg8 protein family (pmid:30115558).</t>
   </si>
   <si>
@@ -923,29 +908,551 @@
     <t xml:space="preserve">The PIKFYVE complex controls PI(3,5)P2 levels and consists of PIKFYVE, FIG4, VAC14 (ArPIKfyve), and WIPI1 (pmid:28302928). </t>
   </si>
   <si>
-    <t xml:space="preserve">The actin-nucleator '''ARP2/3 complex''' is a seven-subunit complex that can nucleate actin-filament branchpoints to establish a network. It stimulates the local assembly of an F-actin network for efficient fusion. It consists of ARP2, ARP3, ARPC1, ARPC2, ARPC3, ARPC4, and ARPC5 (pmid:27146966). </t>
-  </si>
-  <si>
     <t xml:space="preserve">From three to six SNAP29-STX17-VAMP8 SNARE-pins form a mechanically coupled SNAREpin team in a rigid membrane (cholesterol lipid-raft) which accelerates fusion by four orders of magnitude (pmid:30700546). </t>
   </si>
   <si>
     <t xml:space="preserve">The 20s supercomplex forms around the cis-SNARE complex, by binding two to four molecules of alpha-SNAP and an NSF homohexamer to the cis-SNARE-pin (pmid:25581794). </t>
   </si>
   <si>
-    <t>tether component</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
     <t>output</t>
+  </si>
+  <si>
+    <t>integrate</t>
+  </si>
+  <si>
+    <t>transmit</t>
+  </si>
+  <si>
+    <t>Activates Rab7 by catalyzing the GDP-GTP exchange</t>
+  </si>
+  <si>
+    <t>four-helix bundle SNARE</t>
+  </si>
+  <si>
+    <t>control and process of phagosome-lysosome docking and fusion.</t>
+  </si>
+  <si>
+    <t>lipidated LC3</t>
+  </si>
+  <si>
+    <t>t-snare bundle</t>
+  </si>
+  <si>
+    <t>Contains three of the four required helices on the target side.</t>
+  </si>
+  <si>
+    <t>Prenylated LC3 is membrane resident on phagosomes and lysosomes.</t>
+  </si>
+  <si>
+    <t>a phagosome that sequesters cell-internal material</t>
+  </si>
+  <si>
+    <t>The SNARE pin is a trans-SNARE complex as it juxtaposes the membranes to be fused, and turns into a cis-SNARE complex after fusion.</t>
+  </si>
+  <si>
+    <t>cholesterol enriched membrane subdomains</t>
+  </si>
+  <si>
+    <t>PIKFYVE phosphorylates PI(3)P to PI(3,5)P2. Both an excess and a reduction of the PI(3)P to PI(3,5)P2 ratio inhibits fusion</t>
+  </si>
+  <si>
+    <t>PI(3)P-5 kinase</t>
+  </si>
+  <si>
+    <t>A tethering complex that bridges phagosome and lysosome via RAB7 and functions as a SNAREpin chaperone.</t>
+  </si>
+  <si>
+    <t>actin filament</t>
+  </si>
+  <si>
+    <t>a hexa-heterooligomeric membrane tethering complex (MTC complex)</t>
+  </si>
+  <si>
+    <t>a vesicle that contains acidic, lytic enzymes</t>
+  </si>
+  <si>
+    <t>GEF for Rab7</t>
+  </si>
+  <si>
+    <t>vesicle-cytoskeleton connector</t>
+  </si>
+  <si>
+    <t>The RAB7-RILP-dynein-dynactin complex is responsible for minus-end transport of lysosomes along microtubules towards the MTOC, where most lysosomes are located.</t>
+  </si>
+  <si>
+    <t>actin network</t>
+  </si>
+  <si>
+    <t>The 20s supercomplex forms around the cis-SNARE complex, by binding two to four molecules of alpha-SNAP and an NSF homohexamer to the cis-SNARE-pin</t>
+  </si>
+  <si>
+    <t>SNARE unfoldase</t>
+  </si>
+  <si>
+    <t>External to PHALY</t>
+  </si>
+  <si>
+    <t>Genes that are members of PHALY component protein families and/or interact with PHALY components but are not themselves a part of PHALY.</t>
+  </si>
+  <si>
+    <t>A network of branched actin filaments. The branch points are constituted from the Arp2/3 complex.</t>
+  </si>
+  <si>
+    <t>ULK1 complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ULK1 complex </t>
+  </si>
+  <si>
+    <t>ATG13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutations in LC3 can destroy ATG13 interactions and reduce autophagosome formation (UniProt:Q9H492}}  ATG13 interacts with LC3 via its LIR (LC3-interacting region) (pmid:24290141).  ATG13 is a member of the ULK1 complex which consists of ULK1 (formerly Atg1, unc-51 like autophagy activating kinase 1), ATG13, RB1CC1 (formerly Atg17 / FIP200, RB1 inducible coiled-coil 1), and ATG101 (pmid:24290141). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ULK1 complex consists of ULK1 (formerly Atg1, unc-51 like autophagy activating kinase 1), ATG13, RB1CC1 (formerly Atg17 / FIP200, RB1 inducible coiled-coil 1), and ATG101 (pmid:24290141). The ULK1 complex integrates a large number of cellular systems: the mTOR pathway, AMPK as an effector of AMP homeostasis, growth factor pathways acting via TIP60, genotoxic stress response via PPM1D, protein biosynthesis, and response attenuation during prolonged starvation via the cullin E3 ligase (pmid:29233870).  The ULK1 complex is activated under stress conditions  by TORC1 and PKA, it is thus a sensor of nutrient signals that activates autophagy (pmid:24290141). </t>
+  </si>
+  <si>
+    <t>heterotrimeric nutrient status sensor complex</t>
+  </si>
+  <si>
+    <t>The ULK1 complex integrates a large number of cellular systems: the mTOR pathway, AMPK as an effector of AMP homeostasis, growth factor pathways acting via TIP60, genotoxic stress response via PPM1D, protein biosynthesis, and response attenuation during prolonged starvation via the cullin E3 ligase.</t>
+  </si>
+  <si>
+    <t>ATG4A</t>
+  </si>
+  <si>
+    <t>ATG4 proteins play a role in Atg8 protein PTM (priming for lipidation) and in delipidation for phagosome disassembly (KEGG:hsa04140}}</t>
+  </si>
+  <si>
+    <t>ATG4B</t>
+  </si>
+  <si>
+    <t>ATG4C</t>
+  </si>
+  <si>
+    <t>ATG4D</t>
+  </si>
+  <si>
+    <t>KEGG:hsa04140</t>
+  </si>
+  <si>
+    <t>SNAP23</t>
+  </si>
+  <si>
+    <t>UniProt:O00161</t>
+  </si>
+  <si>
+    <t>SNAP23 is a t-SNARE for general membrane fusion (UniProt:O00161}}</t>
+  </si>
+  <si>
+    <t>SNAP25</t>
+  </si>
+  <si>
+    <t>UniProt:P61266</t>
+  </si>
+  <si>
+    <t>SNAP25 is a t-SNARE involved in neurotransmitter release at the synapse (UniProt:P61266}}</t>
+  </si>
+  <si>
+    <t>STX1A</t>
+  </si>
+  <si>
+    <t>UniProt:Q16623</t>
+  </si>
+  <si>
+    <t>STX1A is involved in hormone and neurotransmitter exocytosis (UniProt:Q16623}}</t>
+  </si>
+  <si>
+    <t>STX1B</t>
+  </si>
+  <si>
+    <t>STX1B is involved in docking of synaptic vesicles at presynaptic active zones (UniProt:Q16623}}</t>
+  </si>
+  <si>
+    <t>STX2</t>
+  </si>
+  <si>
+    <t>UniProt:P32856</t>
+  </si>
+  <si>
+    <t>STX2 is essential for epithelial morphogenesis (UniProt:P32856}}</t>
+  </si>
+  <si>
+    <t>STX3</t>
+  </si>
+  <si>
+    <t>UniProt:Q13277</t>
+  </si>
+  <si>
+    <t>STX3 is involved in docking of synaptic vesicles at presynaptic active zones (UniProt:Q13277}}</t>
+  </si>
+  <si>
+    <t>STX4</t>
+  </si>
+  <si>
+    <t>UniProt:Q12846</t>
+  </si>
+  <si>
+    <t>STX3 is a plasma mebrane t-SNARE that is involved in docking of transport vesicles (UniProt:Q12846}}</t>
+  </si>
+  <si>
+    <t>UniProt:O43752</t>
+  </si>
+  <si>
+    <t>STX6 is essential involved in vesicle trafficking (UniProt:O43752}}</t>
+  </si>
+  <si>
+    <t>STX7</t>
+  </si>
+  <si>
+    <t>UniProt:O15400</t>
+  </si>
+  <si>
+    <t>STX7 is involved in homotypic fusion of endocytic organelles (UniProt:O15400}}</t>
+  </si>
+  <si>
+    <t>STX8</t>
+  </si>
+  <si>
+    <t>UniProt:Q9UNK0</t>
+  </si>
+  <si>
+    <t>STX8 is involved in early-secretory retrograde transport (UniProt:Q9UNK0}}</t>
+  </si>
+  <si>
+    <t>STX10</t>
+  </si>
+  <si>
+    <t>UniProt:O60499</t>
+  </si>
+  <si>
+    <t>STX10 is  involved in vesicular transport from the late endosomes to the trans-Golgi network (UniProt:O60499}}</t>
+  </si>
+  <si>
+    <t>STX11</t>
+  </si>
+  <si>
+    <t>UniProt:O75558</t>
+  </si>
+  <si>
+    <t>STX11 acts between the late endosome and the trans-Golgi network (UniProt:O75558}}</t>
+  </si>
+  <si>
+    <t>STX12</t>
+  </si>
+  <si>
+    <t>UniProt:Q86Y82</t>
+  </si>
+  <si>
+    <t>STX12 acts between the late endosome and the trans-Golgi network (UniProt:Q86Y82}}</t>
+  </si>
+  <si>
+    <t>STX16</t>
+  </si>
+  <si>
+    <t>UniProt:O14662</t>
+  </si>
+  <si>
+    <t>STX16 is a t-SNARE localized to the trans-Golgi network (UniProt:O14662}}</t>
+  </si>
+  <si>
+    <t>STX18</t>
+  </si>
+  <si>
+    <t>UniProt:Q9P2W9</t>
+  </si>
+  <si>
+    <t>STX18 is a SNARE that is involved in Golgi-derived retrograde transport vesicles (UniProt:Q9P2W9}}</t>
+  </si>
+  <si>
+    <t>STX19</t>
+  </si>
+  <si>
+    <t>UniProt:Q8N4C7</t>
+  </si>
+  <si>
+    <t>STX19 is involved in in endosomal trafficking of the epidermal growth factor receptor (EGFR) (UniProt:Q8N4C7}}</t>
+  </si>
+  <si>
+    <t>SEC22B</t>
+  </si>
+  <si>
+    <t>UniProt:O75396</t>
+  </si>
+  <si>
+    <t>SEC22B is a high-confidence interactor in STRING, but it is a SNARE that is involved in retrograde transport from the Golgi to the ER (UniProt:O75396}}</t>
+  </si>
+  <si>
+    <t>syntaxin 1A</t>
+  </si>
+  <si>
+    <t>Q16623</t>
+  </si>
+  <si>
+    <t>syntaxin 1B</t>
+  </si>
+  <si>
+    <t>P61266</t>
+  </si>
+  <si>
+    <t>syntaxin 2</t>
+  </si>
+  <si>
+    <t>P32856</t>
+  </si>
+  <si>
+    <t>syntaxin 3</t>
+  </si>
+  <si>
+    <t>Q13277</t>
+  </si>
+  <si>
+    <t>syntaxin 4</t>
+  </si>
+  <si>
+    <t>Q12846</t>
+  </si>
+  <si>
+    <t>syntaxin 7</t>
+  </si>
+  <si>
+    <t>O15400</t>
+  </si>
+  <si>
+    <t>syntaxin 8</t>
+  </si>
+  <si>
+    <t>Q9UNK0</t>
+  </si>
+  <si>
+    <t>syntaxin 10</t>
+  </si>
+  <si>
+    <t>O60499</t>
+  </si>
+  <si>
+    <t>syntaxin 11</t>
+  </si>
+  <si>
+    <t>O75558</t>
+  </si>
+  <si>
+    <t>syntaxin 12</t>
+  </si>
+  <si>
+    <t>Q86Y82</t>
+  </si>
+  <si>
+    <t>syntaxin 16</t>
+  </si>
+  <si>
+    <t>O14662</t>
+  </si>
+  <si>
+    <t>syntaxin 18</t>
+  </si>
+  <si>
+    <t>Q9P2W9</t>
+  </si>
+  <si>
+    <t>syntaxin 19</t>
+  </si>
+  <si>
+    <t>Q8N4C7</t>
+  </si>
+  <si>
+    <t>SEC22 homolog B, vesicle trafficking protein</t>
+  </si>
+  <si>
+    <t>O75396</t>
+  </si>
+  <si>
+    <t>autophagy related 4A cysteine peptidase</t>
+  </si>
+  <si>
+    <t>Q8WYN0</t>
+  </si>
+  <si>
+    <t>autophagy related 4B cysteine peptidase</t>
+  </si>
+  <si>
+    <t>Q9Y4P1</t>
+  </si>
+  <si>
+    <t>autophagy related 4C cysteine peptidase</t>
+  </si>
+  <si>
+    <t>Q96DT6</t>
+  </si>
+  <si>
+    <t>autophagy related 4D cysteine peptidase</t>
+  </si>
+  <si>
+    <t>Q86TL0</t>
+  </si>
+  <si>
+    <t>autophagy related 13</t>
+  </si>
+  <si>
+    <t>O75143</t>
+  </si>
+  <si>
+    <t>MAP1LC3B</t>
+  </si>
+  <si>
+    <t>microtubule associated protein 1 light chain 3 beta</t>
+  </si>
+  <si>
+    <t>Q9GZQ8</t>
+  </si>
+  <si>
+    <t>MAP1LC3C</t>
+  </si>
+  <si>
+    <t>microtubule associated protein 1 light chain 3 gamma</t>
+  </si>
+  <si>
+    <t>Q9BXW4</t>
+  </si>
+  <si>
+    <t>UCSC:uc002xaq.3</t>
+  </si>
+  <si>
+    <t>LC3 beta and gamma are functionally equivalent homologues of MAP1LC3A (UCSC:uc002xaq.3}}.</t>
+  </si>
+  <si>
+    <t>lipid</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>attachment</t>
+  </si>
+  <si>
+    <t>transform</t>
+  </si>
+  <si>
+    <t>compose</t>
+  </si>
+  <si>
+    <t>prevent</t>
+  </si>
+  <si>
+    <t>prepare</t>
+  </si>
+  <si>
+    <t>STX17free</t>
+  </si>
+  <si>
+    <t>STX17bound</t>
+  </si>
+  <si>
+    <t>Syntaxin 17 (membrane bound)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRGM forms a complex (an autophagosome recognition particle, ARP) with STX17 and the Atg8 homologues LC3 and GABARAPL1 that is responsible for phagosomal targeting of STX17. IRGM does not directly bind LC3. IRGM's active conformation is GTP bound. IRGM also has a role in autophagy initiation complexes, binding BECLIN1, ULK1 and ATG16L1, which is independent of STX17 binding (pmid:29420192). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bound STX17 phosporylation on S2 is a key decision point for fusion to proceed; dephosphorylation relieves an inhibitory interaction with VPS33A and the phosphomimetic S2E mutant cannot form a SNARE bundle (pmid:30655294). STX17 has two glycine-zipper motif transmembrane domains that are required for membrane insertion (pmid:29420192). </t>
+  </si>
+  <si>
+    <t>STX17 is a Qa-SNARE which localizes to the phagosome by binding the phagosome membrane marker LC3-II via its LC3-interacting region (LIR) (pmid:30115558).</t>
+  </si>
+  <si>
+    <t>RAB7 is a small GTPase that replaces RAB5 in maturing endosomes (pmid:23645161). RAB7 localization to the membrane requires '''prenylation''' (pmid:30115558).  RAB7 is held in an inactive, soluble state by GDI (ARHGDIA), this interaction - and membrane recruitment - is released by the Mon1-CCZ1 complex (pmid:30333976).  RAB7 is activated on the phagosome by the Mon1-CCZ1 GEF complex which localizes to the phagosome by Atg8 homologue protein binding (pmid:30115558).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAB7 can be localized to the lysosome by interaction with active lysosomal proton pumping vacuolar-type ATPase (V-ATPase) (pmid:30717974).  In its active conformation, RAB7 can bind RILP to promote minus-end directed microtubular transport of the lysosome towards the MTOC (pmid:12944476). </t>
+  </si>
+  <si>
+    <t>RAB7active</t>
+  </si>
+  <si>
+    <t>RAB7 (active)</t>
+  </si>
+  <si>
+    <t>Membrane bound form of the Q-SNARE syntaxin 17</t>
+  </si>
+  <si>
+    <t>active, membrane bound RAB7</t>
+  </si>
+  <si>
+    <t>The active (GTP bound) form of RAB7, prenylated and membrane bound.</t>
+  </si>
+  <si>
+    <t>localize</t>
+  </si>
+  <si>
+    <t>enhance</t>
+  </si>
+  <si>
+    <t>locate</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI is phosphorylated at the phagosome toPI(3)P by PIK3C3 in the PIK3C3 complex. Degradation of PI(3)P to PI on phagosomes reduces autophagy (pmid:27340123). </t>
+  </si>
+  <si>
+    <t>phosphatidylinositol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The actin-nucleator ARP2/3 complex is a seven-subunit complex that can nucleate actin-filament branchpoints to establish a network. It stimulates the local assembly of an F-actin network for efficient fusion. It consists of ARP2, ARP3, ARPC1, ARPC2, ARPC3, ARPC4, and ARPC5 (pmid:27146966). </t>
+  </si>
+  <si>
+    <t>decompose</t>
+  </si>
+  <si>
+    <t>inactivate</t>
+  </si>
+  <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>The PIK3C3 kinase complex creates phosphoinositide-3-phosphate at the phagosome-lysosome fusion site.</t>
+  </si>
+  <si>
+    <t>Autophagosomes digest cell-internal material for general maintenance and under nutrient stress conditions.</t>
+  </si>
+  <si>
+    <t>The cargo of the lysosome is evacuated into the phagosome after fusion and digests the phagosome's contents.</t>
+  </si>
+  <si>
+    <t>F-actin is a filament that forms by polymerization of actin monomers.</t>
+  </si>
+  <si>
+    <t>synaptosome associated protein 23</t>
+  </si>
+  <si>
+    <t>O00161</t>
+  </si>
+  <si>
+    <t>P60880</t>
+  </si>
+  <si>
+    <t>synaptosome associated protein 25</t>
+  </si>
+  <si>
+    <t>Lipid raft subdomains are cholesterol rich patches in membranes that are foci of signalling activity.</t>
+  </si>
+  <si>
+    <t>(protein | RNA | lipid | metabolite | concept)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,6 +1500,11 @@
       <color theme="1"/>
       <name val="Times"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1011,7 +1523,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1045,8 +1557,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1058,8 +1580,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1076,6 +1599,11 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1092,6 +1620,11 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1384,23 +1917,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="17.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21" style="3" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" customWidth="1"/>
     <col min="4" max="4" width="44.33203125" style="3" customWidth="1"/>
     <col min="5" max="17" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="24">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="12">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>6</v>
@@ -1444,133 +1978,265 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
+      <c r="C7" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="3" t="s">
-        <v>241</v>
+        <v>326</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>242</v>
+        <v>327</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="3" t="s">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>241</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>245</v>
+        <v>442</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="3" t="s">
-        <v>62</v>
+        <v>449</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>450</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="3" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>75</v>
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>79</v>
+        <v>242</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>247</v>
+      <c r="C19" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -1586,15 +2252,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="15" style="3" customWidth="1"/>
@@ -1605,42 +2271,42 @@
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="24">
       <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1658,598 +2324,679 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="3">
         <v>30115558</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="3">
         <v>27885029</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>303</v>
+        <v>435</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="3">
         <v>27885029</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>303</v>
+        <v>435</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="3">
         <v>30115558</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>303</v>
+        <v>436</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="3">
         <v>30115558</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="3">
         <v>30115558</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>333</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="3">
-        <v>30115558</v>
+        <v>98</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>101</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>335</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="3">
-        <v>30115558</v>
+        <v>98</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>102</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>336</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="3">
-        <v>30115558</v>
+        <v>98</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>103</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>337</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="3">
-        <v>30115558</v>
+        <v>98</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="3">
-        <v>27628032</v>
+        <v>30115558</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="3">
-        <v>29420192</v>
+        <v>30115558</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="3">
-        <v>23645161</v>
+        <v>30115558</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>282</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>442</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="3">
         <v>30115558</v>
       </c>
+      <c r="E16" s="3" t="s">
+        <v>438</v>
+      </c>
       <c r="F16" s="3" t="s">
-        <v>106</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>41</v>
+        <v>442</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>441</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="3">
-        <v>30115558</v>
+        <v>29420192</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>107</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="3">
-        <v>30115558</v>
+        <v>27628032</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>436</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>9</v>
+        <v>442</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="3">
-        <v>30115558</v>
+        <v>29420192</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>440</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>255</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>46</v>
+        <v>449</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" s="3">
-        <v>30115558</v>
+        <v>23645161</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>436</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>109</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>241</v>
+        <v>449</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" s="3">
-        <v>30115558</v>
+        <v>23645161</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>436</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>256</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>241</v>
+        <v>449</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="3">
         <v>30115558</v>
       </c>
+      <c r="E22" s="3" t="s">
+        <v>437</v>
+      </c>
       <c r="F22" s="3" t="s">
-        <v>257</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" s="3">
         <v>30115558</v>
       </c>
+      <c r="E23" s="3" t="s">
+        <v>438</v>
+      </c>
       <c r="F23" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" s="3">
-        <v>30240735</v>
+        <v>30115558</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>284</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="3">
         <v>30115558</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>305</v>
+        <v>454</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>111</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26" s="3">
-        <v>23878393</v>
+        <v>30115558</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>285</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>9</v>
+        <v>326</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>328</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" s="3">
-        <v>23645161</v>
+        <v>24290141</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>112</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>326</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" s="3">
-        <v>23645161</v>
+        <v>24290141</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>426</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="3">
-        <v>23645161</v>
+        <v>98</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>288</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>55</v>
+        <v>429</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="3">
-        <v>23645161</v>
+        <v>98</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>290</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>56</v>
+        <v>238</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="3">
-        <v>23645161</v>
+        <v>30115558</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>51</v>
+        <v>238</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="3">
-        <v>23645161</v>
+        <v>30115558</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>436</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="3">
-        <v>23645161</v>
+        <v>30115558</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>297</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="3">
-        <v>30115558</v>
+        <v>30240735</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>113</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" s="3">
-        <v>30747526</v>
+        <v>30115558</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>298</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D36" s="3">
-        <v>30115558</v>
+        <v>23878393</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>114</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2257,169 +3004,199 @@
         <v>9</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="3">
-        <v>30704899</v>
+        <v>23645161</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D38" s="3">
-        <v>29089378</v>
+        <v>23645161</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>116</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D39" s="3">
-        <v>30115558</v>
+        <v>23645161</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>117</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D40" s="3">
-        <v>25086043</v>
+        <v>23645161</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>118</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D41" s="3">
-        <v>18326940</v>
+        <v>23645161</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>119</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D42" s="3">
-        <v>30115558</v>
+        <v>23645161</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>120</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D43" s="3">
-        <v>30115558</v>
+        <v>23645161</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D44" s="3">
         <v>30115558</v>
       </c>
+      <c r="E44" s="3" t="s">
+        <v>435</v>
+      </c>
       <c r="F44" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>62</v>
+        <v>238</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D45" s="3">
         <v>30115558</v>
       </c>
+      <c r="E45" s="3" t="s">
+        <v>435</v>
+      </c>
       <c r="F45" s="3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D46" s="3">
-        <v>29089378</v>
+        <v>30747526</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>124</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2427,16 +3204,19 @@
         <v>9</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D47" s="3">
-        <v>27340123</v>
+        <v>30115558</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>454</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2444,254 +3224,299 @@
         <v>9</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D48" s="3">
-        <v>28302928</v>
+        <v>30704899</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>299</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D49" s="3">
-        <v>27340123</v>
+        <v>29089378</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D50" s="3">
-        <v>29089378</v>
+        <v>30115558</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D51" s="3">
-        <v>27283760</v>
+        <v>25086043</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D52" s="3">
-        <v>12944476</v>
+        <v>18326940</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="3" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D53" s="3">
-        <v>27146966</v>
+        <v>30115558</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D54" s="3">
-        <v>27146966</v>
+        <v>30115558</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D55" s="3">
-        <v>27146966</v>
+        <v>30115558</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D56" s="3">
-        <v>27146966</v>
+        <v>30115558</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>300</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D57" s="3">
-        <v>27146966</v>
+        <v>29089378</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>88</v>
+        <v>458</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D58" s="3">
-        <v>27146966</v>
+        <v>29089378</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>134</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D59" s="3">
-        <v>27146966</v>
+        <v>27340123</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="3" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D60" s="3">
-        <v>30692198</v>
+        <v>28302928</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>136</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D61" s="3">
-        <v>30115558</v>
+        <v>27340123</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D62" s="3">
-        <v>30115558</v>
+        <v>29089378</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2699,152 +3524,759 @@
         <v>9</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D63" s="3">
-        <v>30700546</v>
+        <v>27283760</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>301</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D64" s="3">
-        <v>25581794</v>
+        <v>12944476</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>302</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D65" s="3">
-        <v>25581794</v>
+        <v>27146966</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D66" s="3">
-        <v>25581794</v>
+        <v>27146966</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="3" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D67" s="3">
-        <v>30333976</v>
+        <v>27146966</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="3" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>247</v>
+        <v>84</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>258</v>
+        <v>98</v>
+      </c>
+      <c r="D68" s="3">
+        <v>27146966</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>259</v>
+        <v>461</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="3" t="s">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>248</v>
+        <v>85</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D69" s="3">
-        <v>30115558</v>
+        <v>27146966</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>260</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>249</v>
+        <v>87</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D70" s="3">
-        <v>30115558</v>
+        <v>27146966</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>261</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" s="3">
+        <v>27146966</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="3">
+        <v>30692198</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="3">
+        <v>30115558</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74" s="3">
+        <v>30115558</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" s="3">
+        <v>30700546</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="3">
+        <v>25581794</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" s="3">
+        <v>25581794</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="3">
+        <v>25581794</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="3">
+        <v>30333976</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" s="3">
+        <v>30115558</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" s="3">
+        <v>30115558</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D71" s="3">
+      <c r="C83" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" s="3">
         <v>30115558</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>262</v>
+      <c r="E83" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -2860,10 +4292,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2879,25 +4311,25 @@
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="36">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>143</v>
+        <v>474</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1">
@@ -2911,16 +4343,16 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2934,1361 +4366,1889 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>277</v>
+        <v>434</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>442</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>153</v>
+        <v>443</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>441</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>449</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>162</v>
+        <v>450</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>283</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>241</v>
+        <v>164</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>144</v>
+        <v>165</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>328</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>171</v>
+        <v>424</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>47</v>
+        <v>328</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>172</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>48</v>
+        <v>326</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>173</v>
+        <v>326</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>426</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>427</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>144</v>
+        <v>426</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>144</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>50</v>
+        <v>429</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>175</v>
+        <v>430</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>50</v>
+        <v>429</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>176</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>51</v>
+        <v>238</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>178</v>
+        <v>262</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>289</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>292</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>295</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>296</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>144</v>
+        <v>176</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>144</v>
+        <v>178</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>144</v>
+        <v>181</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>276</v>
+        <v>434</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>267</v>
+        <v>193</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="3" t="s">
-        <v>80</v>
+        <v>458</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>212</v>
+        <v>460</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>276</v>
+        <v>434</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>276</v>
+        <v>434</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>216</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>144</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>98</v>
+        <v>266</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>276</v>
+        <v>434</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="3" t="s">
-        <v>247</v>
+        <v>90</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="3" t="s">
-        <v>248</v>
+        <v>91</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>248</v>
+        <v>91</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>249</v>
+        <v>92</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="E70" s="3" t="s">
-        <v>249</v>
+        <v>141</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>273</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>251</v>
+        <v>93</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>250</v>
+        <v>141</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>274</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
